--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>HGS</t>
     <phoneticPr fontId="1"/>
@@ -179,16 +179,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ターン制の作成</t>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オリジナルルールの作成</t>
     <rPh sb="9" eb="11">
       <t>サクセイ</t>
@@ -266,6 +256,16 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>カワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターン制の作成(カメラ)</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -275,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="181" formatCode="d"/>
-    <numFmt numFmtId="184" formatCode="yyyy"/>
-    <numFmt numFmtId="185" formatCode="mm"/>
-    <numFmt numFmtId="188" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="d"/>
+    <numFmt numFmtId="177" formatCode="yyyy"/>
+    <numFmt numFmtId="178" formatCode="mm"/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -488,33 +488,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -522,66 +549,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -875,12 +850,12 @@
   <dimension ref="A1:AS20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="30.58203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.58203125" style="1" customWidth="1"/>
     <col min="6" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="9" max="45" width="3.58203125" customWidth="1"/>
   </cols>
@@ -891,344 +866,344 @@
       </c>
     </row>
     <row r="2" spans="1:45" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="1">
+      <c r="I2" s="15">
         <v>44007</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="3"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="17"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="I3" s="7">
+      <c r="I3" s="3">
         <v>44007</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="3">
         <v>44008</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="3">
         <v>44009</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="3">
         <v>44010</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="3">
         <v>44011</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="3">
         <v>44012</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="3">
         <v>44013</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="3">
         <v>44014</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="3">
         <v>44015</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="3">
         <v>44016</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="3">
         <v>44017</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="3">
         <v>44018</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="3">
         <v>44019</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="3">
         <v>44020</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="3">
         <v>44021</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="3">
         <v>44022</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="3">
         <v>44023</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="Z3" s="3">
         <v>44024</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="3">
         <v>44025</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="3">
         <v>44026</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC3" s="3">
         <v>44027</v>
       </c>
-      <c r="AD3" s="7">
+      <c r="AD3" s="3">
         <v>44028</v>
       </c>
-      <c r="AE3" s="7">
+      <c r="AE3" s="3">
         <v>44029</v>
       </c>
-      <c r="AF3" s="7">
+      <c r="AF3" s="3">
         <v>44030</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AG3" s="3">
         <v>44031</v>
       </c>
-      <c r="AH3" s="7">
+      <c r="AH3" s="3">
         <v>44032</v>
       </c>
-      <c r="AI3" s="7">
+      <c r="AI3" s="3">
         <v>44033</v>
       </c>
-      <c r="AJ3" s="7">
+      <c r="AJ3" s="3">
         <v>44034</v>
       </c>
-      <c r="AK3" s="7">
+      <c r="AK3" s="3">
         <v>44035</v>
       </c>
-      <c r="AL3" s="7">
+      <c r="AL3" s="3">
         <v>44036</v>
       </c>
-      <c r="AM3" s="7">
+      <c r="AM3" s="3">
         <v>44037</v>
       </c>
-      <c r="AN3" s="7">
+      <c r="AN3" s="3">
         <v>44038</v>
       </c>
-      <c r="AO3" s="7">
+      <c r="AO3" s="3">
         <v>44039</v>
       </c>
-      <c r="AP3" s="7">
+      <c r="AP3" s="3">
         <v>44040</v>
       </c>
-      <c r="AQ3" s="7">
+      <c r="AQ3" s="3">
         <v>44041</v>
       </c>
-      <c r="AR3" s="7">
+      <c r="AR3" s="3">
         <v>44042</v>
       </c>
-      <c r="AS3" s="16">
+      <c r="AS3" s="9">
         <v>44043</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="6">
         <v>44007</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="6">
         <v>44008</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="6">
         <v>44009</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="6">
         <v>44010</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="6">
         <v>44011</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="6">
         <v>44012</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="6">
         <v>44013</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="6">
         <v>44014</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="6">
         <v>44015</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="6">
         <v>44016</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="6">
         <v>44017</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="6">
         <v>44018</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="6">
         <v>44019</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="6">
         <v>44020</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="6">
         <v>44021</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="6">
         <v>44022</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="Y4" s="6">
         <v>44023</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="6">
         <v>44024</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA4" s="6">
         <v>44025</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AB4" s="6">
         <v>44026</v>
       </c>
-      <c r="AC4" s="12">
+      <c r="AC4" s="6">
         <v>44027</v>
       </c>
-      <c r="AD4" s="12">
+      <c r="AD4" s="6">
         <v>44028</v>
       </c>
-      <c r="AE4" s="12">
+      <c r="AE4" s="6">
         <v>44029</v>
       </c>
-      <c r="AF4" s="12">
+      <c r="AF4" s="6">
         <v>44030</v>
       </c>
-      <c r="AG4" s="12">
+      <c r="AG4" s="6">
         <v>44031</v>
       </c>
-      <c r="AH4" s="12">
+      <c r="AH4" s="6">
         <v>44032</v>
       </c>
-      <c r="AI4" s="12">
+      <c r="AI4" s="6">
         <v>44033</v>
       </c>
-      <c r="AJ4" s="12">
+      <c r="AJ4" s="6">
         <v>44034</v>
       </c>
-      <c r="AK4" s="12">
+      <c r="AK4" s="6">
         <v>44035</v>
       </c>
-      <c r="AL4" s="12">
+      <c r="AL4" s="6">
         <v>44036</v>
       </c>
-      <c r="AM4" s="12">
+      <c r="AM4" s="6">
         <v>44037</v>
       </c>
-      <c r="AN4" s="12">
+      <c r="AN4" s="6">
         <v>44038</v>
       </c>
-      <c r="AO4" s="12">
+      <c r="AO4" s="6">
         <v>44039</v>
       </c>
-      <c r="AP4" s="12">
+      <c r="AP4" s="6">
         <v>44040</v>
       </c>
-      <c r="AQ4" s="12">
+      <c r="AQ4" s="6">
         <v>44041</v>
       </c>
-      <c r="AR4" s="12">
+      <c r="AR4" s="6">
         <v>44042</v>
       </c>
-      <c r="AS4" s="17">
+      <c r="AS4" s="10">
         <v>44043</v>
       </c>
     </row>
     <row r="5" spans="1:45" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="18" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1236,249 +1211,345 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="AS6" s="19"/>
+      <c r="C6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="AS6" s="12"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="AS7" s="19"/>
+      <c r="D7" s="14"/>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44007</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44027</v>
+      </c>
+      <c r="AS7" s="12"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="AS8" s="19"/>
+      <c r="C8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44007</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44027</v>
+      </c>
+      <c r="AS8" s="12"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="AS9" s="19"/>
+      <c r="C9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44007</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44027</v>
+      </c>
+      <c r="AS9" s="12"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="AS10" s="19"/>
+      <c r="D10" s="14"/>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44007</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44027</v>
+      </c>
+      <c r="AS10" s="12"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="AS11" s="19"/>
+      <c r="C11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44007</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44027</v>
+      </c>
+      <c r="AS11" s="12"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="AS12" s="19"/>
+      <c r="C12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44007</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44027</v>
+      </c>
+      <c r="AS12" s="12"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="AS13" s="19"/>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="20">
+        <v>44007</v>
+      </c>
+      <c r="G13" s="20">
+        <v>44018</v>
+      </c>
+      <c r="AS13" s="12"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="AS14" s="19"/>
+      <c r="C14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="F14" s="20">
+        <v>44028</v>
+      </c>
+      <c r="G14" s="20">
+        <v>44029</v>
+      </c>
+      <c r="AS14" s="12"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="AS15" s="19"/>
+      <c r="C15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="F15" s="20">
+        <v>44018</v>
+      </c>
+      <c r="G15" s="20">
+        <v>44027</v>
+      </c>
+      <c r="AS15" s="12"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="AS16" s="19"/>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="F16" s="20">
+        <v>44027</v>
+      </c>
+      <c r="G16" s="20">
+        <v>44032</v>
+      </c>
+      <c r="AS16" s="12"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="AS17" s="19"/>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="F17" s="20">
+        <v>44008</v>
+      </c>
+      <c r="G17" s="20">
+        <v>44013</v>
+      </c>
+      <c r="AS17" s="12"/>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="AS18" s="19"/>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="F18" s="20">
+        <v>44032</v>
+      </c>
+      <c r="G18" s="20">
+        <v>44035</v>
+      </c>
+      <c r="AS18" s="12"/>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="AS19" s="12"/>
+    </row>
+    <row r="20" spans="1:45" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="7">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="AS19" s="19"/>
-    </row>
-    <row r="20" spans="1:45" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="13">
-        <v>15</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="18"/>
+      <c r="C20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I2:AS2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -1489,23 +1560,15 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="I2:AS2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I6:AS25">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(I$4&gt;=$F6,I$4&lt;=$G6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:AS20">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(WEEKDAY(I$4)=1,WEEKDAY(I$4)=7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1536,30 +1599,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>HGS</t>
     <phoneticPr fontId="1"/>
@@ -528,29 +528,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1161,8 +1161,8 @@
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1371,10 +1371,10 @@
       <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="13">
         <v>44007</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="13">
         <v>44018</v>
       </c>
       <c r="AS13" s="12"/>
@@ -1390,10 +1390,10 @@
         <v>29</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="F14" s="20">
+      <c r="F14" s="13">
         <v>44028</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="13">
         <v>44029</v>
       </c>
       <c r="AS14" s="12"/>
@@ -1409,10 +1409,10 @@
         <v>29</v>
       </c>
       <c r="D15" s="14"/>
-      <c r="F15" s="20">
+      <c r="F15" s="13">
         <v>44018</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="13">
         <v>44027</v>
       </c>
       <c r="AS15" s="12"/>
@@ -1428,10 +1428,13 @@
         <v>31</v>
       </c>
       <c r="D16" s="14"/>
-      <c r="F16" s="20">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="13">
         <v>44027</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="13">
         <v>44032</v>
       </c>
       <c r="AS16" s="12"/>
@@ -1447,10 +1450,10 @@
         <v>31</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="F17" s="20">
+      <c r="F17" s="13">
         <v>44008</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="13">
         <v>44013</v>
       </c>
       <c r="AS17" s="12"/>
@@ -1466,10 +1469,10 @@
         <v>29</v>
       </c>
       <c r="D18" s="14"/>
-      <c r="F18" s="20">
+      <c r="F18" s="13">
         <v>44032</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="13">
         <v>44035</v>
       </c>
       <c r="AS18" s="12"/>
@@ -1494,10 +1497,10 @@
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -1542,14 +1545,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="I2:AS2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -1560,6 +1555,14 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I2:AS2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I6:AS25">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>HGS</t>
     <phoneticPr fontId="1"/>
@@ -531,6 +531,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,9 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -866,45 +866,45 @@
       </c>
     </row>
     <row r="2" spans="1:45" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="15">
+      <c r="I2" s="16">
         <v>44007</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="18"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="I3" s="3">
@@ -1026,10 +1026,10 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1161,8 +1161,8 @@
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1214,10 +1214,10 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="15"/>
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -1232,12 +1232,12 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2">
         <v>44007</v>
@@ -1254,12 +1254,12 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="15"/>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2">
         <v>44007</v>
@@ -1276,12 +1276,12 @@
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="15"/>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2">
         <v>44007</v>
@@ -1298,12 +1298,12 @@
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="15"/>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2">
         <v>44007</v>
@@ -1320,12 +1320,12 @@
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="15"/>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2">
         <v>44007</v>
@@ -1342,12 +1342,12 @@
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="15"/>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2">
         <v>44007</v>
@@ -1364,12 +1364,12 @@
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="15"/>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F13" s="13">
         <v>44007</v>
@@ -1386,10 +1386,13 @@
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
       <c r="F14" s="13">
         <v>44028</v>
       </c>
@@ -1405,10 +1408,13 @@
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
       <c r="F15" s="13">
         <v>44018</v>
       </c>
@@ -1424,10 +1430,10 @@
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="14"/>
+      <c r="C16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="15"/>
       <c r="E16" t="s">
         <v>7</v>
       </c>
@@ -1446,10 +1452,13 @@
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
       <c r="F17" s="13">
         <v>44008</v>
       </c>
@@ -1465,10 +1474,13 @@
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
       <c r="F18" s="13">
         <v>44032</v>
       </c>
@@ -1484,10 +1496,10 @@
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="AS19" s="12"/>
     </row>
     <row r="20" spans="1:45" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -1497,10 +1509,10 @@
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -1545,6 +1557,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I2:AS2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -1555,14 +1575,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="I2:AS2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I6:AS25">

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>HGS</t>
     <phoneticPr fontId="1"/>
@@ -110,116 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チェス盤作成</t>
-    <rPh sb="3" eb="4">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポーンの動き</t>
-    <rPh sb="4" eb="5">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナイトの動き</t>
-    <rPh sb="4" eb="5">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ルークの動き</t>
-    <rPh sb="4" eb="5">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ビショップの動き</t>
-    <rPh sb="6" eb="7">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クイーンの動き</t>
-    <rPh sb="5" eb="6">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キングの動き</t>
-    <rPh sb="4" eb="5">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェス動作テスト</t>
-    <rPh sb="3" eb="5">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>駒ごとにAT、HP作成</t>
-    <rPh sb="0" eb="1">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オリジナルルールの作成</t>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>scene作成</t>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI作成</t>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エフェクト追加(時間があれば)</t>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コントローラー設定(時間があれば)</t>
-    <rPh sb="7" eb="9">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
@@ -260,12 +150,102 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ターン制の作成(カメラ)</t>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
+    <t>企画完成</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェスモデル作るか買うか</t>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画仮完成</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシステム(主に進化)</t>
+    <rPh sb="8" eb="9">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル対戦</t>
+    <rPh sb="4" eb="6">
+      <t>タイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントローラー設定</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いろいろ調整</t>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作戦会議</t>
+    <rPh sb="0" eb="2">
+      <t>サクセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンライン対戦(やらないかも)</t>
     <rPh sb="5" eb="7">
-      <t>サクセイ</t>
+      <t>タイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストプレイ(紙)</t>
+    <rPh sb="7" eb="8">
+      <t>カミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -531,26 +511,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +830,7 @@
   <dimension ref="A1:AS20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -866,45 +846,45 @@
       </c>
     </row>
     <row r="2" spans="1:45" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>44007</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="18"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="17"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="I3" s="3">
@@ -1026,10 +1006,10 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1161,8 +1141,8 @@
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1212,14 +1192,14 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14"/>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1230,14 +1210,14 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="14"/>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2">
         <v>44007</v>
@@ -1252,14 +1232,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="14"/>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2">
         <v>44007</v>
@@ -1274,14 +1254,14 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14"/>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2">
         <v>44007</v>
@@ -1296,14 +1276,14 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="14"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2">
         <v>44007</v>
@@ -1318,14 +1298,14 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="14"/>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2">
         <v>44007</v>
@@ -1340,14 +1320,14 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="14"/>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2">
         <v>44007</v>
@@ -1362,14 +1342,14 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="14"/>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" s="13">
         <v>44007</v>
@@ -1384,14 +1364,14 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="C14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="14"/>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="13">
         <v>44028</v>
@@ -1406,14 +1386,14 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="14"/>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="13">
         <v>44018</v>
@@ -1428,12 +1408,12 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="14"/>
       <c r="E16" t="s">
         <v>7</v>
       </c>
@@ -1450,12 +1430,12 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="14"/>
       <c r="E17" t="s">
         <v>7</v>
       </c>
@@ -1472,12 +1452,12 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="14"/>
       <c r="E18" t="s">
         <v>7</v>
       </c>
@@ -1493,24 +1473,18 @@
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="15"/>
+      <c r="C19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="14"/>
       <c r="AS19" s="12"/>
     </row>
     <row r="20" spans="1:45" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="7">
         <v>15</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="C20" s="14" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="7"/>
@@ -1557,14 +1531,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="I2:AS2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -1575,6 +1541,14 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I2:AS2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I6:AS25">
@@ -1620,22 +1594,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
